--- a/Input/dap/dap_mpca_preliminary.xlsx
+++ b/Input/dap/dap_mpca_preliminary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelyn GAKINYA\Documents\18. MPCA Analysis\MPCA_Analysis\Input\dap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelyn GAKINYA\Documents\GitHub\MPCA_Analysis\Input\dap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="647">
   <si>
     <t>research.question</t>
   </si>
@@ -116,18 +119,12 @@
     <t>displaced_escalation</t>
   </si>
   <si>
-    <t>shelter_type</t>
-  </si>
-  <si>
     <t>% of households by primary shelter type reported in the 12 months prior to data collection</t>
   </si>
   <si>
     <t>% of households reporting fear of eviction</t>
   </si>
   <si>
-    <t>occupancy_arrangement</t>
-  </si>
-  <si>
     <t>Indicator Group . Sector</t>
   </si>
   <si>
@@ -182,15 +179,9 @@
     <t>% of households by primary reason fearing eviction.dispute</t>
   </si>
   <si>
-    <t>receive_other_assistance</t>
-  </si>
-  <si>
     <t>% of HHs receiving other kinds of assistance</t>
   </si>
   <si>
-    <t>receive_other_assistance_which</t>
-  </si>
-  <si>
     <t>Type of other assistance received</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
     <t>shocks2</t>
   </si>
   <si>
-    <t>exp_shock</t>
-  </si>
-  <si>
     <t>% of households reporting experiencing at least one shock during the period they received MPCA, excluding the May Escalation</t>
   </si>
   <si>
@@ -782,9 +770,6 @@
     <t>% of households reporting how their financial situation compares to before receiving MPCA</t>
   </si>
   <si>
-    <t>impact2</t>
-  </si>
-  <si>
     <t xml:space="preserve">% of households attributing their improved financial situation to My Choice </t>
   </si>
   <si>
@@ -797,12 +782,6 @@
     <t xml:space="preserve">% of households attributing their improved mental state to My Choice </t>
   </si>
   <si>
-    <t>impact4</t>
-  </si>
-  <si>
-    <t>% of HHs reporting changes in inter-HH behavior as a result of the MPCA</t>
-  </si>
-  <si>
     <t>Joint decision-making (e.g. more than one HH member) on household expenses</t>
   </si>
   <si>
@@ -818,27 +797,9 @@
     <t>Disputes with creditors</t>
   </si>
   <si>
-    <t>impact6_i</t>
-  </si>
-  <si>
-    <t>impact6_ii</t>
-  </si>
-  <si>
-    <t>impact6_iii</t>
-  </si>
-  <si>
-    <t>impact6_iv</t>
-  </si>
-  <si>
-    <t>impact6_v</t>
-  </si>
-  <si>
     <t>% of households reporting an increase in household member dignity as a result of My Choice</t>
   </si>
   <si>
-    <t>change_dignity_mpca</t>
-  </si>
-  <si>
     <t>% of households reporting the manner in which household members' dignity has changed as a result of My Choice</t>
   </si>
   <si>
@@ -890,9 +851,6 @@
     <t>% of households reporting changes with relatives as a result of receiving MPCA through My Choice</t>
   </si>
   <si>
-    <t>sat1</t>
-  </si>
-  <si>
     <t>% of households reporting reasons relations with relatives have worsened by reason</t>
   </si>
   <si>
@@ -923,9 +881,6 @@
     <t>% of households reporting changes with other households or community members since receiving MPCA through My Choice</t>
   </si>
   <si>
-    <t>sat3</t>
-  </si>
-  <si>
     <t>% of households reporting reasons relations with other households or community members have worsened by reason</t>
   </si>
   <si>
@@ -944,9 +899,6 @@
     <t>% of households who have incurred debts in the past 30 days</t>
   </si>
   <si>
-    <t>debts</t>
-  </si>
-  <si>
     <t>% of households by source of incurred debt</t>
   </si>
   <si>
@@ -1067,21 +1019,12 @@
     <t>% of HHs filing complaints</t>
   </si>
   <si>
-    <t>use_complaint_mechanisms</t>
-  </si>
-  <si>
     <t>% of households reporting time to receive response to complaints</t>
   </si>
   <si>
-    <t>time_resolve_complaint</t>
-  </si>
-  <si>
     <t>% of HHs reporting satisfaction with resolution of complaints</t>
   </si>
   <si>
-    <t>satisfaction_complaint</t>
-  </si>
-  <si>
     <t>% of HHs by reason for not filing a complaint</t>
   </si>
   <si>
@@ -1229,12 +1172,6 @@
     <t>hh5</t>
   </si>
   <si>
-    <t>hh6</t>
-  </si>
-  <si>
-    <t>transfer_misaligned_why</t>
-  </si>
-  <si>
     <t>% of HHs reporting reason why MPCA did not help in meeting HH needs following the May Escalation</t>
   </si>
   <si>
@@ -1284,13 +1221,760 @@
   </si>
   <si>
     <t>per_adults</t>
+  </si>
+  <si>
+    <t>food_unrwa</t>
+  </si>
+  <si>
+    <t>In-kind assistance (food) - UNRWA</t>
+  </si>
+  <si>
+    <t>cva_unrwa</t>
+  </si>
+  <si>
+    <t>cash_qatar</t>
+  </si>
+  <si>
+    <t>food_ingo</t>
+  </si>
+  <si>
+    <t>food_wfp</t>
+  </si>
+  <si>
+    <t>cva_cbo</t>
+  </si>
+  <si>
+    <t>cva_wfp</t>
+  </si>
+  <si>
+    <t>cva_gov</t>
+  </si>
+  <si>
+    <t>Cash or voucher assistance - UNRWA</t>
+  </si>
+  <si>
+    <t>Cash assistance - Qatar</t>
+  </si>
+  <si>
+    <t>In-kind assistance (food) - INGO</t>
+  </si>
+  <si>
+    <t>In-kind assistance (food) - WFP</t>
+  </si>
+  <si>
+    <t>Cash or voucher assistance - CBO or local NGO</t>
+  </si>
+  <si>
+    <t>Cash or voucher assistance - WFP</t>
+  </si>
+  <si>
+    <t>Cash or voucher assistance - Government agency (e.g. MoSD)</t>
+  </si>
+  <si>
+    <t>cash_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>cash_barriers.distance</t>
+  </si>
+  <si>
+    <t>cash_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>cash_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>cash_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>cash_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to meeting  cash needs by type of barrier</t>
+  </si>
+  <si>
+    <t>food_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>food_barriers.distance</t>
+  </si>
+  <si>
+    <t>food_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>food_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>food_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>food_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their food needs by type of barriers</t>
+  </si>
+  <si>
+    <t>Insufficient money to purchase goods or services</t>
+  </si>
+  <si>
+    <t>Distance / need to travel makes it difficult to access markets/service providers</t>
+  </si>
+  <si>
+    <t>Security situation makes it difficult to access markets/service providers</t>
+  </si>
+  <si>
+    <t>Social discrimination makes it difficult to access markets/service providers</t>
+  </si>
+  <si>
+    <t>Insufficient amount of goods/services available</t>
+  </si>
+  <si>
+    <t>Poor quality goods/services available Insufficient skills of service providers</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their shelter needs by type of barrier</t>
+  </si>
+  <si>
+    <t>shelter_barriers</t>
+  </si>
+  <si>
+    <t>shelter_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>shelter_barriers.distance</t>
+  </si>
+  <si>
+    <t>shelter_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>shelter_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>shelter_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>water_barriers</t>
+  </si>
+  <si>
+    <t>water_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>water_barriers.distance</t>
+  </si>
+  <si>
+    <t>water_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>water_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>water_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their hygiene needs by barrier</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.distance</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>hygiene_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their health needs by type of barrier</t>
+  </si>
+  <si>
+    <t>health_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>health_barriers.distance</t>
+  </si>
+  <si>
+    <t>health_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>health_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>health_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>health_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their education needs by type of barrier</t>
+  </si>
+  <si>
+    <t>edu_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>edu_barriers.distance</t>
+  </si>
+  <si>
+    <t>edu_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>edu_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>edu_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>edu_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>energy_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>energy_barriers.distance</t>
+  </si>
+  <si>
+    <t>energy_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>energy_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>energy_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>energy_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their energy needs by type of barrier</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their transportation needs by type of barrier</t>
+  </si>
+  <si>
+    <t>transportation_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>transportation_barriers.distance</t>
+  </si>
+  <si>
+    <t>transportation_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>transportation_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>transportation_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>transportation_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.distance</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>hh_items_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their communication needs by type of barrier</t>
+  </si>
+  <si>
+    <t>comms_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>comms_barriers.distance</t>
+  </si>
+  <si>
+    <t>comms_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>comms_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>comms_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>comms_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>% of HHs reporting primary barriers to their debt needs by type of barrier</t>
+  </si>
+  <si>
+    <t>debt_barriers.insufficient_money</t>
+  </si>
+  <si>
+    <t>debt_barriers.distance</t>
+  </si>
+  <si>
+    <t>debt_barriers.security_situation</t>
+  </si>
+  <si>
+    <t>debt_barriers.social_discrimination</t>
+  </si>
+  <si>
+    <t>debt_barriers.insufficient_goods</t>
+  </si>
+  <si>
+    <t>debt_barriers.poor_quality</t>
+  </si>
+  <si>
+    <t>Value of distribution was insufficient</t>
+  </si>
+  <si>
+    <t>Could not access ATM because ATM was out of service</t>
+  </si>
+  <si>
+    <t>Could not access ATM because could not physically travel (e.g. injury or damaged means of transport/infrastructure)</t>
+  </si>
+  <si>
+    <t>Could not access ATM because of insecurity</t>
+  </si>
+  <si>
+    <t>Did not receive cash in a sufficiently timely manner</t>
+  </si>
+  <si>
+    <t>Cash was not the best modality to meet the need / was not applicable to the need</t>
+  </si>
+  <si>
+    <t>% of HHs reporting reason why MPCA did not help in meeting HH needs following the May Escalation by reason</t>
+  </si>
+  <si>
+    <t>shock3_i</t>
+  </si>
+  <si>
+    <t>shock3_ii</t>
+  </si>
+  <si>
+    <t>shock3_iii</t>
+  </si>
+  <si>
+    <t>shock3_iv</t>
+  </si>
+  <si>
+    <t>shock3_v</t>
+  </si>
+  <si>
+    <t>shock3_vi</t>
+  </si>
+  <si>
+    <t>hh6_i</t>
+  </si>
+  <si>
+    <t>hh6_ii</t>
+  </si>
+  <si>
+    <t>hh6_iii</t>
+  </si>
+  <si>
+    <t>hh6_iv</t>
+  </si>
+  <si>
+    <t>hh6_v</t>
+  </si>
+  <si>
+    <t>Solid / finished apartment</t>
+  </si>
+  <si>
+    <t>Solid / finished house</t>
+  </si>
+  <si>
+    <t>Unfinished / non-enclosed building</t>
+  </si>
+  <si>
+    <t>Makeshift shelter</t>
+  </si>
+  <si>
+    <t>Collective shelter</t>
+  </si>
+  <si>
+    <t>hh8</t>
+  </si>
+  <si>
+    <t>hh9</t>
+  </si>
+  <si>
+    <t>Rented</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Hosted without rent (by family, friends, institution)</t>
+  </si>
+  <si>
+    <t>No occupancy agreement / squatting</t>
+  </si>
+  <si>
+    <t>hh7_i</t>
+  </si>
+  <si>
+    <t>hh7_ii</t>
+  </si>
+  <si>
+    <t>hh7_iii</t>
+  </si>
+  <si>
+    <t>hh7_iv</t>
+  </si>
+  <si>
+    <t>shock of medical expenses</t>
+  </si>
+  <si>
+    <t>shock of loss of income</t>
+  </si>
+  <si>
+    <t>shock of arrival of new household members</t>
+  </si>
+  <si>
+    <t>shock of need to repair or replace a household item</t>
+  </si>
+  <si>
+    <t>shock of repairing a productive asset</t>
+  </si>
+  <si>
+    <t>shock of education expenses</t>
+  </si>
+  <si>
+    <t>shock of shelter expenses</t>
+  </si>
+  <si>
+    <t>shock of debt payment</t>
+  </si>
+  <si>
+    <t>shocks6_i</t>
+  </si>
+  <si>
+    <t>shocks6_ii</t>
+  </si>
+  <si>
+    <t>shocks6_iv</t>
+  </si>
+  <si>
+    <t>shocks6_v</t>
+  </si>
+  <si>
+    <t>shocks6_vi</t>
+  </si>
+  <si>
+    <t>shocks6_vii</t>
+  </si>
+  <si>
+    <t>shocks6_viii</t>
+  </si>
+  <si>
+    <t>shocks6_ix</t>
+  </si>
+  <si>
+    <t>shock5</t>
+  </si>
+  <si>
+    <t>shock7_i</t>
+  </si>
+  <si>
+    <t>shock7_v</t>
+  </si>
+  <si>
+    <t>shock7_vi</t>
+  </si>
+  <si>
+    <t>shock7_vii</t>
+  </si>
+  <si>
+    <t>shock7_viii</t>
+  </si>
+  <si>
+    <t>shock7_xi</t>
+  </si>
+  <si>
+    <t>Average expenditure</t>
+  </si>
+  <si>
+    <t>hh23_i</t>
+  </si>
+  <si>
+    <t>hh23_ii</t>
+  </si>
+  <si>
+    <t>hh23_iii</t>
+  </si>
+  <si>
+    <t>hh23_iv</t>
+  </si>
+  <si>
+    <t>hh23_v</t>
+  </si>
+  <si>
+    <t>hh23_vi</t>
+  </si>
+  <si>
+    <t>hh23_vii</t>
+  </si>
+  <si>
+    <t>hh23_viii</t>
+  </si>
+  <si>
+    <t>hh23_ix</t>
+  </si>
+  <si>
+    <t>hh23_x</t>
+  </si>
+  <si>
+    <t>hh23_xi</t>
+  </si>
+  <si>
+    <t>hh23_xii</t>
+  </si>
+  <si>
+    <t>hh23_xiii</t>
+  </si>
+  <si>
+    <t>total expense</t>
+  </si>
+  <si>
+    <t>selling_hh_properties</t>
+  </si>
+  <si>
+    <t>spent_savings</t>
+  </si>
+  <si>
+    <t>buying_goods_on_credit</t>
+  </si>
+  <si>
+    <t>hh_members_ate_eslewhere</t>
+  </si>
+  <si>
+    <t>selling_productive_assets</t>
+  </si>
+  <si>
+    <t>withdrew_children_from_school</t>
+  </si>
+  <si>
+    <t>school_drop_out</t>
+  </si>
+  <si>
+    <t>reduced_health_expenses</t>
+  </si>
+  <si>
+    <t>engaging_in_risky_behaviour</t>
+  </si>
+  <si>
+    <t>sold_house_land</t>
+  </si>
+  <si>
+    <t>hh_migrated</t>
+  </si>
+  <si>
+    <t>hh24</t>
+  </si>
+  <si>
+    <t>hh25_i</t>
+  </si>
+  <si>
+    <t>hh25_ii</t>
+  </si>
+  <si>
+    <t>hh25_iii</t>
+  </si>
+  <si>
+    <t>hh25_iv</t>
+  </si>
+  <si>
+    <t>hh25_v</t>
+  </si>
+  <si>
+    <t>hh25_vi</t>
+  </si>
+  <si>
+    <t>hh25_vii</t>
+  </si>
+  <si>
+    <t>hh25_viii</t>
+  </si>
+  <si>
+    <t>hh25_ix</t>
+  </si>
+  <si>
+    <t>hh25_x</t>
+  </si>
+  <si>
+    <t>hh25_xi</t>
+  </si>
+  <si>
+    <t>Improved</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Worsened</t>
+  </si>
+  <si>
+    <t>impact2_improved</t>
+  </si>
+  <si>
+    <t>impact2_constant</t>
+  </si>
+  <si>
+    <t>impact2_worsened</t>
+  </si>
+  <si>
+    <t>impact4_improved</t>
+  </si>
+  <si>
+    <t>impact4_constant</t>
+  </si>
+  <si>
+    <t>impact4_worsened</t>
+  </si>
+  <si>
+    <t>impact7</t>
+  </si>
+  <si>
+    <t>s1_improved</t>
+  </si>
+  <si>
+    <t>s1_constant</t>
+  </si>
+  <si>
+    <t>s1_worsened</t>
+  </si>
+  <si>
+    <t>s3_improved</t>
+  </si>
+  <si>
+    <t>s3_constant</t>
+  </si>
+  <si>
+    <t>s3_worsened</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>aap1</t>
+  </si>
+  <si>
+    <t>Less than a week</t>
+  </si>
+  <si>
+    <t>One week</t>
+  </si>
+  <si>
+    <t>Two weeks</t>
+  </si>
+  <si>
+    <t>Three weeks or more</t>
+  </si>
+  <si>
+    <t>My complaint was not addressed</t>
+  </si>
+  <si>
+    <t>aap2_i</t>
+  </si>
+  <si>
+    <t>aap2_ii</t>
+  </si>
+  <si>
+    <t>aap2_iii</t>
+  </si>
+  <si>
+    <t>aap2_iv</t>
+  </si>
+  <si>
+    <t>aap2_v</t>
+  </si>
+  <si>
+    <t>aap3_satisfied</t>
+  </si>
+  <si>
+    <t>aap3_constant</t>
+  </si>
+  <si>
+    <t>aap3_dissatisfied</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>dissatisfied</t>
+  </si>
+  <si>
+    <t>p6_i_increased</t>
+  </si>
+  <si>
+    <t>p6_i_constant</t>
+  </si>
+  <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>p6_i_decreased</t>
+  </si>
+  <si>
+    <t>p6_ii_increased</t>
+  </si>
+  <si>
+    <t>p6_ii_constant</t>
+  </si>
+  <si>
+    <t>p6_ii_decreased</t>
+  </si>
+  <si>
+    <t>p6_iii_increased</t>
+  </si>
+  <si>
+    <t>p6_iii_constant</t>
+  </si>
+  <si>
+    <t>p6_iii_decreased</t>
+  </si>
+  <si>
+    <t>p6_iv_increased</t>
+  </si>
+  <si>
+    <t>p6_iv_constant</t>
+  </si>
+  <si>
+    <t>p6_iv_decreased</t>
+  </si>
+  <si>
+    <t>p6_v_increased</t>
+  </si>
+  <si>
+    <t>p6_v_constant</t>
+  </si>
+  <si>
+    <t>p6_v_decreased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,6 +2020,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1357,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1379,6 +2069,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1661,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1714,10 +2414,10 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1741,10 +2441,10 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1768,10 +2468,10 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1839,10 +2539,10 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1864,15 +2564,15 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -1886,15 +2586,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>13</v>
@@ -1908,15 +2608,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>13</v>
@@ -1930,15 +2630,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>13</v>
@@ -1952,15 +2652,15 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>13</v>
@@ -1986,7 +2686,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>13</v>
@@ -2014,8 +2714,8 @@
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
+      <c r="H14" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
@@ -2034,8 +2734,8 @@
       <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
+      <c r="H15" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>14</v>
@@ -2046,198 +2746,198 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>520</v>
+      </c>
+      <c r="G16" t="s">
+        <v>515</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G17" t="s">
+        <v>516</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G18" t="s">
+        <v>517</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>523</v>
+      </c>
+      <c r="G19" t="s">
+        <v>518</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>524</v>
+      </c>
+      <c r="G20" t="s">
+        <v>519</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>527</v>
+      </c>
+      <c r="G21" t="s">
+        <v>531</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G22" t="s">
+        <v>532</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>529</v>
+      </c>
+      <c r="G23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G24" t="s">
+        <v>534</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>401</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2246,13 +2946,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>13</v>
@@ -2266,16 +2966,16 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>14</v>
@@ -2286,33 +2986,33 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>69</v>
+      <c r="A29" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>13</v>
@@ -2322,297 +3022,297 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>69</v>
+      <c r="A30" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>69</v>
+      <c r="A31" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>69</v>
+      <c r="A32" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
+      <c r="A33" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>69</v>
+      <c r="A34" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>69</v>
+      <c r="A35" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
+      <c r="A36" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>69</v>
+      <c r="A37" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>69</v>
+      <c r="A38" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>409</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>69</v>
+      <c r="A39" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>69</v>
+      <c r="A40" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>69</v>
+      <c r="A41" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>69</v>
+      <c r="A42" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>13</v>
@@ -2623,16 +3323,16 @@
     </row>
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -2643,16 +3343,16 @@
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
         <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" t="s">
-        <v>100</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>13</v>
@@ -2663,16 +3363,16 @@
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -2683,16 +3383,16 @@
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>13</v>
@@ -2703,16 +3403,16 @@
     </row>
     <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>13</v>
@@ -2723,16 +3423,16 @@
     </row>
     <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>13</v>
@@ -2743,16 +3443,16 @@
     </row>
     <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>13</v>
@@ -2763,16 +3463,16 @@
     </row>
     <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>13</v>
@@ -2783,16 +3483,16 @@
     </row>
     <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2803,16 +3503,16 @@
     </row>
     <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>13</v>
@@ -2823,16 +3523,16 @@
     </row>
     <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>110</v>
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -2843,136 +3543,136 @@
     </row>
     <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>111</v>
+        <v>420</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>112</v>
+        <v>420</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>113</v>
+        <v>420</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>114</v>
+        <v>420</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>108</v>
+        <v>420</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G60" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>109</v>
+        <v>420</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>110</v>
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>13</v>
@@ -2983,276 +3683,276 @@
     </row>
     <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>111</v>
+        <v>427</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>112</v>
+        <v>427</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>113</v>
+        <v>427</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G65" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>114</v>
+        <v>427</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" t="s">
-        <v>122</v>
+        <v>427</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G67" t="s">
-        <v>409</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
+        <v>427</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s">
-        <v>402</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>133</v>
+        <v>434</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>134</v>
+        <v>434</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>135</v>
+        <v>434</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" t="s">
-        <v>140</v>
+        <v>434</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>153</v>
+        <v>434</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G74" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>154</v>
+        <v>434</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>155</v>
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
       </c>
       <c r="G76" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>13</v>
@@ -3263,136 +3963,136 @@
     </row>
     <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>156</v>
+        <v>78</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>157</v>
+        <v>78</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>158</v>
+        <v>78</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>159</v>
+        <v>78</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>160</v>
+        <v>78</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G81" t="s">
-        <v>149</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>161</v>
+        <v>78</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>162</v>
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
@@ -3403,136 +4103,136 @@
     </row>
     <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" t="s">
-        <v>164</v>
+        <v>447</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G84" t="s">
-        <v>165</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
-      </c>
-      <c r="C85" t="s">
-        <v>403</v>
+        <v>447</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G85" t="s">
-        <v>404</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" t="s">
-        <v>167</v>
+        <v>447</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G86" t="s">
-        <v>166</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>169</v>
+        <v>447</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G87" t="s">
-        <v>178</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>170</v>
+        <v>447</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>171</v>
+        <v>447</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G89" t="s">
-        <v>180</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>172</v>
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
       </c>
       <c r="G90" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>13</v>
@@ -3543,136 +4243,136 @@
     </row>
     <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>173</v>
+        <v>454</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G91" t="s">
-        <v>182</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>174</v>
+        <v>454</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G92" t="s">
-        <v>183</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>175</v>
+        <v>454</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>176</v>
+        <v>454</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G94" t="s">
-        <v>185</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>177</v>
+        <v>454</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G95" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" t="s">
-        <v>187</v>
+        <v>454</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G96" t="s">
-        <v>405</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>406</v>
+        <v>97</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>13</v>
@@ -3683,136 +4383,136 @@
     </row>
     <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>191</v>
+        <v>461</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G98" t="s">
-        <v>206</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>192</v>
+        <v>461</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G99" t="s">
-        <v>207</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>193</v>
+        <v>461</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G100" t="s">
-        <v>208</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>194</v>
+        <v>461</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G101" t="s">
-        <v>209</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>195</v>
+        <v>461</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G102" t="s">
-        <v>210</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>196</v>
+        <v>461</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>197</v>
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
       </c>
       <c r="G104" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>13</v>
@@ -3823,136 +4523,136 @@
     </row>
     <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>198</v>
+        <v>474</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G105" t="s">
-        <v>213</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>199</v>
+        <v>474</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>200</v>
+        <v>474</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G107" t="s">
-        <v>215</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>201</v>
+        <v>474</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>202</v>
+        <v>474</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G109" t="s">
-        <v>217</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>203</v>
+        <v>474</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G110" t="s">
-        <v>218</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>204</v>
+        <v>78</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>13</v>
@@ -3963,136 +4663,136 @@
     </row>
     <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>205</v>
+        <v>475</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G112" t="s">
-        <v>220</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>153</v>
+        <v>475</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G113" t="s">
-        <v>234</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
-      </c>
-      <c r="C114" t="s">
-        <v>222</v>
+        <v>475</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G114" t="s">
-        <v>235</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" t="s">
-        <v>223</v>
+        <v>475</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G115" t="s">
-        <v>236</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
-      </c>
-      <c r="C116" t="s">
-        <v>224</v>
+        <v>475</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G116" t="s">
-        <v>237</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I116" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
-      </c>
-      <c r="C117" t="s">
-        <v>225</v>
+        <v>475</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G117" t="s">
-        <v>238</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>13</v>
@@ -4103,136 +4803,136 @@
     </row>
     <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119" t="s">
-        <v>227</v>
+        <v>78</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G119" t="s">
-        <v>240</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" t="s">
-        <v>228</v>
+        <v>78</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G120" t="s">
-        <v>241</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" t="s">
-        <v>229</v>
+        <v>78</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G121" t="s">
-        <v>242</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" t="s">
-        <v>230</v>
+        <v>78</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G122" t="s">
-        <v>243</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" t="s">
-        <v>231</v>
+        <v>78</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G123" t="s">
-        <v>244</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" t="s">
-        <v>232</v>
+        <v>78</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G124" t="s">
-        <v>245</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>13</v>
@@ -4243,1505 +4943,4586 @@
     </row>
     <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" t="s">
-        <v>248</v>
+        <v>488</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G126" t="s">
-        <v>248</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" t="s">
-        <v>249</v>
+        <v>488</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G127" t="s">
-        <v>249</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" t="s">
-        <v>250</v>
+        <v>488</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G128" t="s">
-        <v>250</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
-      </c>
-      <c r="C129" t="s">
-        <v>251</v>
+        <v>488</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G129" t="s">
-        <v>252</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H129" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
-      </c>
-      <c r="C130" t="s">
-        <v>253</v>
+        <v>488</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G130" t="s">
-        <v>255</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I130" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
-      </c>
-      <c r="C131" t="s">
-        <v>254</v>
+        <v>488</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G131" t="s">
-        <v>257</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I131" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="G132" t="s">
-        <v>407</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>259</v>
+        <v>495</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="G133" t="s">
-        <v>264</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>260</v>
+        <v>495</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>429</v>
       </c>
       <c r="G134" t="s">
-        <v>265</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>261</v>
+        <v>495</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="G135" t="s">
-        <v>266</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>262</v>
+        <v>495</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="G136" t="s">
-        <v>267</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I136" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>263</v>
+        <v>495</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G137" t="s">
-        <v>268</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
-      </c>
-      <c r="C138" t="s">
-        <v>269</v>
+        <v>495</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>433</v>
       </c>
       <c r="G138" t="s">
-        <v>270</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>272</v>
+        <v>103</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G139" t="s">
-        <v>279</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>273</v>
+        <v>103</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G140" t="s">
-        <v>280</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I140" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>274</v>
+        <v>103</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G141" t="s">
-        <v>281</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I141" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>275</v>
+        <v>103</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G142" t="s">
-        <v>282</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>276</v>
+        <v>103</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G143" t="s">
-        <v>283</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>277</v>
+        <v>103</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G144" t="s">
-        <v>284</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I144" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>278</v>
+        <v>103</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G145" t="s">
-        <v>285</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I145" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" t="s">
-        <v>287</v>
+        <v>118</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G146" t="s">
-        <v>288</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>290</v>
+        <v>118</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G147" t="s">
-        <v>294</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>289</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>291</v>
+        <v>118</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G148" t="s">
-        <v>295</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I148" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>289</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>292</v>
+        <v>118</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="G149" t="s">
-        <v>296</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>293</v>
+        <v>118</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G150" t="s">
-        <v>297</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
-      </c>
-      <c r="C151" t="s">
-        <v>298</v>
+        <v>118</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G151" t="s">
-        <v>299</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>290</v>
+        <v>118</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G152" t="s">
-        <v>301</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>291</v>
+        <v>118</v>
+      </c>
+      <c r="C153" t="s">
+        <v>118</v>
       </c>
       <c r="G153" t="s">
-        <v>302</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>292</v>
+        <v>126</v>
+      </c>
+      <c r="C154" t="s">
+        <v>126</v>
       </c>
       <c r="G154" t="s">
-        <v>303</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>300</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>293</v>
+        <v>132</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="G155" t="s">
-        <v>304</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
-      </c>
-      <c r="C156" t="s">
-        <v>305</v>
+        <v>132</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="G156" t="s">
-        <v>306</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>308</v>
+        <v>132</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="G157" t="s">
-        <v>327</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I157" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>309</v>
+        <v>136</v>
+      </c>
+      <c r="C158" t="s">
+        <v>136</v>
       </c>
       <c r="G158" t="s">
-        <v>328</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>310</v>
+        <v>148</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="G159" t="s">
-        <v>329</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>307</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>311</v>
+        <v>148</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G160" t="s">
-        <v>330</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>312</v>
+        <v>148</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="G161" t="s">
-        <v>331</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>313</v>
+        <v>148</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="G162" t="s">
-        <v>332</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>307</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>314</v>
+        <v>148</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="G163" t="s">
-        <v>333</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I163" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B164" t="s">
-        <v>315</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>316</v>
+        <v>148</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="G164" t="s">
-        <v>334</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I164" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>317</v>
+        <v>148</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="G165" t="s">
-        <v>335</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I165" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B166" t="s">
-        <v>315</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>318</v>
+        <v>148</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="G166" t="s">
-        <v>336</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I166" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>319</v>
+        <v>148</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G167" t="s">
-        <v>337</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B168" t="s">
-        <v>315</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>320</v>
+        <v>148</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="G168" t="s">
-        <v>338</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B169" t="s">
-        <v>315</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>321</v>
+        <v>160</v>
+      </c>
+      <c r="C169" t="s">
+        <v>160</v>
       </c>
       <c r="G169" t="s">
-        <v>339</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>315</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>322</v>
+        <v>381</v>
+      </c>
+      <c r="C170" t="s">
+        <v>381</v>
       </c>
       <c r="G170" t="s">
-        <v>340</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>315</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>323</v>
+        <v>508</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>502</v>
       </c>
       <c r="G171" t="s">
-        <v>341</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>324</v>
+        <v>508</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>503</v>
       </c>
       <c r="G172" t="s">
-        <v>342</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>315</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>325</v>
+        <v>508</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>504</v>
       </c>
       <c r="G173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="B174" t="s">
-        <v>315</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>326</v>
+        <v>508</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>505</v>
       </c>
       <c r="G174" t="s">
-        <v>344</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>345</v>
+        <v>508</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="G175" t="s">
-        <v>408</v>
-      </c>
-      <c r="H175" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H175" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
-      </c>
-      <c r="C176" t="s">
-        <v>346</v>
+        <v>508</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="G176" t="s">
-        <v>347</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I176" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="C177" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="G177" t="s">
-        <v>349</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I177" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
-      </c>
-      <c r="C178" t="s">
-        <v>350</v>
+        <v>163</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="G178" t="s">
-        <v>351</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I178" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="G179" t="s">
-        <v>362</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I179" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B180" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>355</v>
+        <v>166</v>
       </c>
       <c r="G180" t="s">
-        <v>363</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I180" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B181" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="G181" t="s">
-        <v>364</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I181" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
       <c r="G182" t="s">
-        <v>365</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B183" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>358</v>
+        <v>169</v>
       </c>
       <c r="G183" t="s">
-        <v>366</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="G184" t="s">
-        <v>367</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I184" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B185" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="G185" t="s">
-        <v>368</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I185" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>361</v>
+        <v>172</v>
       </c>
       <c r="G186" t="s">
-        <v>369</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>370</v>
+        <v>182</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>535</v>
       </c>
       <c r="G187" t="s">
-        <v>379</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I187" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="G188" t="s">
-        <v>380</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I188" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B189" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>372</v>
+        <v>537</v>
       </c>
       <c r="G189" t="s">
-        <v>381</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I189" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H189" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>373</v>
+        <v>538</v>
       </c>
       <c r="G190" t="s">
-        <v>382</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B191" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>374</v>
+        <v>539</v>
       </c>
       <c r="G191" t="s">
-        <v>383</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I191" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H191" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>375</v>
+        <v>540</v>
       </c>
       <c r="G192" t="s">
-        <v>384</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I192" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="G193" t="s">
-        <v>385</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I193" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H193" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B194" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="G194" t="s">
-        <v>386</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I194" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>378</v>
+        <v>182</v>
+      </c>
+      <c r="C195" t="s">
+        <v>182</v>
       </c>
       <c r="G195" t="s">
-        <v>387</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I195" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H195" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>389</v>
+        <v>183</v>
+      </c>
+      <c r="C196" t="s">
+        <v>535</v>
       </c>
       <c r="G196" t="s">
-        <v>394</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I196" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>390</v>
+        <v>183</v>
+      </c>
+      <c r="C197" t="s">
+        <v>538</v>
       </c>
       <c r="G197" t="s">
-        <v>395</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I197" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B198" t="s">
-        <v>388</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>391</v>
+        <v>183</v>
+      </c>
+      <c r="C198" t="s">
+        <v>539</v>
       </c>
       <c r="G198" t="s">
-        <v>396</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I198" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B199" t="s">
-        <v>388</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>392</v>
+        <v>183</v>
+      </c>
+      <c r="C199" t="s">
+        <v>540</v>
       </c>
       <c r="G199" t="s">
-        <v>397</v>
-      </c>
-      <c r="H199" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I199" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H199" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="B200" t="s">
-        <v>388</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>393</v>
+        <v>183</v>
+      </c>
+      <c r="C200" t="s">
+        <v>541</v>
       </c>
       <c r="G200" t="s">
-        <v>398</v>
-      </c>
-      <c r="H200" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>159</v>
+      </c>
+      <c r="B201" t="s">
+        <v>183</v>
+      </c>
+      <c r="C201" t="s">
+        <v>542</v>
+      </c>
+      <c r="G201" t="s">
+        <v>557</v>
+      </c>
+      <c r="H201" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" t="s">
+        <v>183</v>
+      </c>
+      <c r="G202" t="s">
+        <v>384</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>185</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G203" t="s">
+        <v>201</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>185</v>
+      </c>
+      <c r="B204" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G204" t="s">
+        <v>202</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>185</v>
+      </c>
+      <c r="B205" t="s">
+        <v>184</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G205" t="s">
+        <v>203</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>185</v>
+      </c>
+      <c r="B206" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G206" t="s">
+        <v>204</v>
+      </c>
+      <c r="H206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>185</v>
+      </c>
+      <c r="B207" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G207" t="s">
+        <v>205</v>
+      </c>
+      <c r="H207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>185</v>
+      </c>
+      <c r="B208" t="s">
+        <v>184</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G208" t="s">
+        <v>206</v>
+      </c>
+      <c r="H208" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" t="s">
+        <v>184</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G209" t="s">
+        <v>207</v>
+      </c>
+      <c r="H209" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>185</v>
+      </c>
+      <c r="B210" t="s">
+        <v>184</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G210" t="s">
+        <v>208</v>
+      </c>
+      <c r="H210" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" t="s">
+        <v>184</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G211" t="s">
+        <v>209</v>
+      </c>
+      <c r="H211" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" t="s">
+        <v>184</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G212" t="s">
+        <v>210</v>
+      </c>
+      <c r="H212" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>185</v>
+      </c>
+      <c r="B213" t="s">
+        <v>184</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G213" t="s">
+        <v>211</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>185</v>
+      </c>
+      <c r="B214" t="s">
+        <v>184</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G214" t="s">
+        <v>212</v>
+      </c>
+      <c r="H214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>185</v>
+      </c>
+      <c r="B215" t="s">
+        <v>184</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G215" t="s">
+        <v>213</v>
+      </c>
+      <c r="H215" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>185</v>
+      </c>
+      <c r="B216" t="s">
+        <v>184</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G216" t="s">
+        <v>214</v>
+      </c>
+      <c r="H216" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" t="s">
+        <v>184</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G217" t="s">
+        <v>215</v>
+      </c>
+      <c r="H217" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
+        <v>149</v>
+      </c>
+      <c r="G218" t="s">
+        <v>229</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219" t="s">
+        <v>217</v>
+      </c>
+      <c r="G219" t="s">
+        <v>230</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" t="s">
+        <v>216</v>
+      </c>
+      <c r="C220" t="s">
+        <v>218</v>
+      </c>
+      <c r="G220" t="s">
+        <v>231</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>185</v>
+      </c>
+      <c r="B221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C221" t="s">
+        <v>219</v>
+      </c>
+      <c r="G221" t="s">
+        <v>232</v>
+      </c>
+      <c r="H221" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" t="s">
+        <v>216</v>
+      </c>
+      <c r="C222" t="s">
+        <v>220</v>
+      </c>
+      <c r="G222" t="s">
+        <v>233</v>
+      </c>
+      <c r="H222" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>185</v>
+      </c>
+      <c r="B223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C223" t="s">
+        <v>221</v>
+      </c>
+      <c r="G223" t="s">
+        <v>234</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224" t="s">
+        <v>222</v>
+      </c>
+      <c r="G224" t="s">
+        <v>235</v>
+      </c>
+      <c r="H224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>185</v>
+      </c>
+      <c r="B225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225" t="s">
+        <v>223</v>
+      </c>
+      <c r="G225" t="s">
+        <v>236</v>
+      </c>
+      <c r="H225" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>185</v>
+      </c>
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>224</v>
+      </c>
+      <c r="G226" t="s">
+        <v>237</v>
+      </c>
+      <c r="H226" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>185</v>
+      </c>
+      <c r="B227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" t="s">
+        <v>225</v>
+      </c>
+      <c r="G227" t="s">
+        <v>238</v>
+      </c>
+      <c r="H227" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>185</v>
+      </c>
+      <c r="B228" t="s">
+        <v>216</v>
+      </c>
+      <c r="C228" t="s">
+        <v>226</v>
+      </c>
+      <c r="G228" t="s">
+        <v>239</v>
+      </c>
+      <c r="H228" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>185</v>
+      </c>
+      <c r="B229" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" t="s">
+        <v>227</v>
+      </c>
+      <c r="G229" t="s">
+        <v>240</v>
+      </c>
+      <c r="H229" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" t="s">
+        <v>216</v>
+      </c>
+      <c r="C230" t="s">
+        <v>228</v>
+      </c>
+      <c r="G230" t="s">
+        <v>241</v>
+      </c>
+      <c r="H230" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>185</v>
+      </c>
+      <c r="B231" t="s">
+        <v>558</v>
+      </c>
+      <c r="C231" t="s">
+        <v>149</v>
+      </c>
+      <c r="G231" t="s">
+        <v>559</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>185</v>
+      </c>
+      <c r="B232" t="s">
+        <v>558</v>
+      </c>
+      <c r="C232" t="s">
+        <v>217</v>
+      </c>
+      <c r="G232" t="s">
+        <v>560</v>
+      </c>
+      <c r="H232" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>185</v>
+      </c>
+      <c r="B233" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" t="s">
+        <v>218</v>
+      </c>
+      <c r="G233" t="s">
+        <v>561</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>185</v>
+      </c>
+      <c r="B234" t="s">
+        <v>558</v>
+      </c>
+      <c r="C234" t="s">
+        <v>219</v>
+      </c>
+      <c r="G234" t="s">
+        <v>562</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" t="s">
+        <v>558</v>
+      </c>
+      <c r="C235" t="s">
+        <v>220</v>
+      </c>
+      <c r="G235" t="s">
+        <v>563</v>
+      </c>
+      <c r="H235" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>185</v>
+      </c>
+      <c r="B236" t="s">
+        <v>558</v>
+      </c>
+      <c r="C236" t="s">
+        <v>221</v>
+      </c>
+      <c r="G236" t="s">
+        <v>564</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>185</v>
+      </c>
+      <c r="B237" t="s">
+        <v>558</v>
+      </c>
+      <c r="C237" t="s">
+        <v>222</v>
+      </c>
+      <c r="G237" t="s">
+        <v>565</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>185</v>
+      </c>
+      <c r="B238" t="s">
+        <v>558</v>
+      </c>
+      <c r="C238" t="s">
+        <v>223</v>
+      </c>
+      <c r="G238" t="s">
+        <v>566</v>
+      </c>
+      <c r="H238" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>185</v>
+      </c>
+      <c r="B239" t="s">
+        <v>558</v>
+      </c>
+      <c r="C239" t="s">
+        <v>224</v>
+      </c>
+      <c r="G239" t="s">
+        <v>567</v>
+      </c>
+      <c r="H239" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>185</v>
+      </c>
+      <c r="B240" t="s">
+        <v>558</v>
+      </c>
+      <c r="C240" t="s">
+        <v>225</v>
+      </c>
+      <c r="G240" t="s">
+        <v>568</v>
+      </c>
+      <c r="H240" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>185</v>
+      </c>
+      <c r="B241" t="s">
+        <v>558</v>
+      </c>
+      <c r="C241" t="s">
+        <v>226</v>
+      </c>
+      <c r="G241" t="s">
+        <v>569</v>
+      </c>
+      <c r="H241" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>185</v>
+      </c>
+      <c r="B242" t="s">
+        <v>558</v>
+      </c>
+      <c r="C242" t="s">
+        <v>227</v>
+      </c>
+      <c r="G242" t="s">
+        <v>570</v>
+      </c>
+      <c r="H242" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>185</v>
+      </c>
+      <c r="B243" t="s">
+        <v>558</v>
+      </c>
+      <c r="C243" t="s">
+        <v>228</v>
+      </c>
+      <c r="G243" t="s">
+        <v>571</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>185</v>
+      </c>
+      <c r="B244" t="s">
+        <v>558</v>
+      </c>
+      <c r="C244" t="s">
+        <v>572</v>
+      </c>
+      <c r="G244" t="s">
+        <v>584</v>
+      </c>
+      <c r="H244" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>185</v>
+      </c>
+      <c r="B245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
+        <v>243</v>
+      </c>
+      <c r="G245" t="s">
+        <v>243</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>185</v>
+      </c>
+      <c r="B246" t="s">
+        <v>242</v>
+      </c>
+      <c r="C246" t="s">
+        <v>244</v>
+      </c>
+      <c r="G246" t="s">
+        <v>244</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>185</v>
+      </c>
+      <c r="B247" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" t="s">
+        <v>245</v>
+      </c>
+      <c r="G247" t="s">
+        <v>245</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>185</v>
+      </c>
+      <c r="B248" t="s">
+        <v>242</v>
+      </c>
+      <c r="C248" t="s">
+        <v>573</v>
+      </c>
+      <c r="G248" t="s">
+        <v>585</v>
+      </c>
+      <c r="H248" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>185</v>
+      </c>
+      <c r="B249" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" t="s">
+        <v>574</v>
+      </c>
+      <c r="G249" t="s">
+        <v>586</v>
+      </c>
+      <c r="H249" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>185</v>
+      </c>
+      <c r="B250" t="s">
+        <v>242</v>
+      </c>
+      <c r="C250" t="s">
+        <v>575</v>
+      </c>
+      <c r="G250" t="s">
+        <v>587</v>
+      </c>
+      <c r="H250" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>185</v>
+      </c>
+      <c r="B251" t="s">
+        <v>242</v>
+      </c>
+      <c r="C251" t="s">
+        <v>576</v>
+      </c>
+      <c r="G251" t="s">
+        <v>588</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>185</v>
+      </c>
+      <c r="B252" t="s">
+        <v>242</v>
+      </c>
+      <c r="C252" t="s">
+        <v>577</v>
+      </c>
+      <c r="G252" t="s">
+        <v>589</v>
+      </c>
+      <c r="H252" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I252" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" t="s">
+        <v>242</v>
+      </c>
+      <c r="C253" t="s">
+        <v>578</v>
+      </c>
+      <c r="G253" t="s">
+        <v>590</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>185</v>
+      </c>
+      <c r="B254" t="s">
+        <v>242</v>
+      </c>
+      <c r="C254" t="s">
+        <v>579</v>
+      </c>
+      <c r="G254" t="s">
+        <v>591</v>
+      </c>
+      <c r="H254" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I254" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>185</v>
+      </c>
+      <c r="B255" t="s">
+        <v>242</v>
+      </c>
+      <c r="C255" t="s">
+        <v>580</v>
+      </c>
+      <c r="G255" t="s">
+        <v>592</v>
+      </c>
+      <c r="H255" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>185</v>
+      </c>
+      <c r="B256" t="s">
+        <v>242</v>
+      </c>
+      <c r="C256" t="s">
+        <v>581</v>
+      </c>
+      <c r="G256" t="s">
+        <v>593</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I256" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>185</v>
+      </c>
+      <c r="B257" t="s">
+        <v>242</v>
+      </c>
+      <c r="C257" t="s">
+        <v>582</v>
+      </c>
+      <c r="G257" t="s">
+        <v>594</v>
+      </c>
+      <c r="H257" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I257" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>185</v>
+      </c>
+      <c r="B258" t="s">
+        <v>242</v>
+      </c>
+      <c r="C258" t="s">
+        <v>583</v>
+      </c>
+      <c r="G258" t="s">
+        <v>595</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>185</v>
+      </c>
+      <c r="B259" t="s">
+        <v>246</v>
+      </c>
+      <c r="C259" t="s">
+        <v>596</v>
+      </c>
+      <c r="G259" t="s">
+        <v>599</v>
+      </c>
+      <c r="H259" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I259" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>185</v>
+      </c>
+      <c r="B260" t="s">
+        <v>246</v>
+      </c>
+      <c r="C260" t="s">
+        <v>597</v>
+      </c>
+      <c r="G260" t="s">
+        <v>600</v>
+      </c>
+      <c r="H260" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I260" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>185</v>
+      </c>
+      <c r="B261" t="s">
+        <v>246</v>
+      </c>
+      <c r="C261" t="s">
+        <v>598</v>
+      </c>
+      <c r="G261" t="s">
+        <v>601</v>
+      </c>
+      <c r="H261" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I261" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>185</v>
+      </c>
+      <c r="B262" t="s">
+        <v>247</v>
+      </c>
+      <c r="C262" t="s">
+        <v>247</v>
+      </c>
+      <c r="G262" t="s">
+        <v>249</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I262" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>185</v>
+      </c>
+      <c r="B263" t="s">
+        <v>248</v>
+      </c>
+      <c r="C263" t="s">
+        <v>596</v>
+      </c>
+      <c r="G263" t="s">
+        <v>602</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I263" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>185</v>
+      </c>
+      <c r="B264" t="s">
+        <v>248</v>
+      </c>
+      <c r="C264" t="s">
+        <v>597</v>
+      </c>
+      <c r="G264" t="s">
+        <v>603</v>
+      </c>
+      <c r="H264" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I264" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>185</v>
+      </c>
+      <c r="B265" t="s">
+        <v>248</v>
+      </c>
+      <c r="C265" t="s">
+        <v>598</v>
+      </c>
+      <c r="G265" t="s">
+        <v>604</v>
+      </c>
+      <c r="H265" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I265" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>185</v>
+      </c>
+      <c r="B266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C266" t="s">
+        <v>250</v>
+      </c>
+      <c r="G266" t="s">
+        <v>385</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I266" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>185</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G267" t="s">
+        <v>630</v>
+      </c>
+      <c r="H267" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I267" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>185</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G268" t="s">
+        <v>631</v>
+      </c>
+      <c r="H268" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I268" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>185</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G269" t="s">
+        <v>634</v>
+      </c>
+      <c r="H269" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I269" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>185</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G270" t="s">
+        <v>635</v>
+      </c>
+      <c r="H270" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I270" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>185</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G271" t="s">
+        <v>636</v>
+      </c>
+      <c r="H271" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I271" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>185</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G272" t="s">
+        <v>637</v>
+      </c>
+      <c r="H272" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I272" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>185</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G273" t="s">
+        <v>638</v>
+      </c>
+      <c r="H273" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I273" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>185</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G274" t="s">
+        <v>639</v>
+      </c>
+      <c r="H274" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I274" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>185</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G275" t="s">
+        <v>640</v>
+      </c>
+      <c r="H275" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I275" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>185</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G276" t="s">
+        <v>641</v>
+      </c>
+      <c r="H276" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I276" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>185</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G277" t="s">
+        <v>642</v>
+      </c>
+      <c r="H277" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I277" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>185</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G278" t="s">
+        <v>643</v>
+      </c>
+      <c r="H278" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I278" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>185</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="G279" t="s">
+        <v>644</v>
+      </c>
+      <c r="H279" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I279" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>185</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="G280" t="s">
+        <v>645</v>
+      </c>
+      <c r="H280" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I280" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>185</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G281" t="s">
+        <v>646</v>
+      </c>
+      <c r="H281" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I281" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>185</v>
+      </c>
+      <c r="B282" t="s">
+        <v>256</v>
+      </c>
+      <c r="C282" t="s">
+        <v>256</v>
+      </c>
+      <c r="G282" t="s">
+        <v>605</v>
+      </c>
+      <c r="H282" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I282" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>185</v>
+      </c>
+      <c r="B283" t="s">
+        <v>257</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G283" t="s">
+        <v>265</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I283" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>185</v>
+      </c>
+      <c r="B284" t="s">
+        <v>257</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G284" t="s">
+        <v>266</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I284" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>185</v>
+      </c>
+      <c r="B285" t="s">
+        <v>257</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G285" t="s">
+        <v>267</v>
+      </c>
+      <c r="H285" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I285" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>185</v>
+      </c>
+      <c r="B286" t="s">
+        <v>257</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G286" t="s">
+        <v>268</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I286" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>185</v>
+      </c>
+      <c r="B287" t="s">
+        <v>257</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G287" t="s">
+        <v>269</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I287" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>185</v>
+      </c>
+      <c r="B288" t="s">
+        <v>257</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G288" t="s">
+        <v>270</v>
+      </c>
+      <c r="H288" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I288" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>185</v>
+      </c>
+      <c r="B289" t="s">
+        <v>257</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G289" t="s">
+        <v>271</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I289" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>272</v>
+      </c>
+      <c r="B290" t="s">
+        <v>273</v>
+      </c>
+      <c r="C290" t="s">
+        <v>596</v>
+      </c>
+      <c r="G290" t="s">
+        <v>606</v>
+      </c>
+      <c r="H290" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I290" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>272</v>
+      </c>
+      <c r="B291" t="s">
+        <v>273</v>
+      </c>
+      <c r="C291" t="s">
+        <v>597</v>
+      </c>
+      <c r="G291" t="s">
+        <v>607</v>
+      </c>
+      <c r="H291" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I291" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>272</v>
+      </c>
+      <c r="B292" t="s">
+        <v>273</v>
+      </c>
+      <c r="C292" t="s">
+        <v>598</v>
+      </c>
+      <c r="G292" t="s">
+        <v>608</v>
+      </c>
+      <c r="H292" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I292" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>272</v>
+      </c>
+      <c r="B293" t="s">
+        <v>274</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G293" t="s">
+        <v>279</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I293" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>272</v>
+      </c>
+      <c r="B294" t="s">
+        <v>274</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G294" t="s">
+        <v>280</v>
+      </c>
+      <c r="H294" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I294" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>272</v>
+      </c>
+      <c r="B295" t="s">
+        <v>274</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G295" t="s">
+        <v>281</v>
+      </c>
+      <c r="H295" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I295" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>272</v>
+      </c>
+      <c r="B296" t="s">
+        <v>274</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G296" t="s">
+        <v>282</v>
+      </c>
+      <c r="H296" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I296" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>272</v>
+      </c>
+      <c r="B297" t="s">
+        <v>283</v>
+      </c>
+      <c r="C297" t="s">
+        <v>596</v>
+      </c>
+      <c r="G297" t="s">
+        <v>609</v>
+      </c>
+      <c r="H297" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I297" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>272</v>
+      </c>
+      <c r="B298" t="s">
+        <v>283</v>
+      </c>
+      <c r="C298" t="s">
+        <v>597</v>
+      </c>
+      <c r="G298" t="s">
+        <v>610</v>
+      </c>
+      <c r="H298" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I298" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>272</v>
+      </c>
+      <c r="B299" t="s">
+        <v>283</v>
+      </c>
+      <c r="C299" t="s">
+        <v>598</v>
+      </c>
+      <c r="G299" t="s">
+        <v>611</v>
+      </c>
+      <c r="H299" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I299" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>272</v>
+      </c>
+      <c r="B300" t="s">
+        <v>284</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G300" t="s">
+        <v>285</v>
+      </c>
+      <c r="H300" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I300" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>272</v>
+      </c>
+      <c r="B301" t="s">
+        <v>284</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G301" t="s">
+        <v>286</v>
+      </c>
+      <c r="H301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I301" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>272</v>
+      </c>
+      <c r="B302" t="s">
+        <v>284</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G302" t="s">
+        <v>287</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I302" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>272</v>
+      </c>
+      <c r="B303" t="s">
+        <v>284</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G303" t="s">
+        <v>288</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I303" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>272</v>
+      </c>
+      <c r="B304" t="s">
+        <v>289</v>
+      </c>
+      <c r="C304" t="s">
+        <v>289</v>
+      </c>
+      <c r="G304" t="s">
+        <v>612</v>
+      </c>
+      <c r="H304" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I304" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>272</v>
+      </c>
+      <c r="B305" t="s">
+        <v>290</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G305" t="s">
+        <v>310</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I305" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>272</v>
+      </c>
+      <c r="B306" t="s">
+        <v>290</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G306" t="s">
+        <v>311</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I306" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>272</v>
+      </c>
+      <c r="B307" t="s">
+        <v>290</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G307" t="s">
+        <v>312</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I307" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>272</v>
+      </c>
+      <c r="B308" t="s">
+        <v>290</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G308" t="s">
+        <v>313</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I308" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>272</v>
+      </c>
+      <c r="B309" t="s">
+        <v>290</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G309" t="s">
+        <v>314</v>
+      </c>
+      <c r="H309" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>272</v>
+      </c>
+      <c r="B310" t="s">
+        <v>290</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G310" t="s">
+        <v>315</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I310" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>272</v>
+      </c>
+      <c r="B311" t="s">
+        <v>290</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G311" t="s">
+        <v>316</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I311" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>272</v>
+      </c>
+      <c r="B312" t="s">
+        <v>298</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G312" t="s">
+        <v>317</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I312" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>272</v>
+      </c>
+      <c r="B313" t="s">
+        <v>298</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G313" t="s">
+        <v>318</v>
+      </c>
+      <c r="H313" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I313" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>272</v>
+      </c>
+      <c r="B314" t="s">
+        <v>298</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G314" t="s">
+        <v>319</v>
+      </c>
+      <c r="H314" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I314" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>272</v>
+      </c>
+      <c r="B315" t="s">
+        <v>298</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G315" t="s">
+        <v>320</v>
+      </c>
+      <c r="H315" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I315" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>272</v>
+      </c>
+      <c r="B316" t="s">
+        <v>298</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G316" t="s">
+        <v>321</v>
+      </c>
+      <c r="H316" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I316" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>272</v>
+      </c>
+      <c r="B317" t="s">
+        <v>298</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G317" t="s">
+        <v>322</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I317" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>272</v>
+      </c>
+      <c r="B318" t="s">
+        <v>298</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G318" t="s">
+        <v>323</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I318" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>272</v>
+      </c>
+      <c r="B319" t="s">
+        <v>298</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G319" t="s">
+        <v>324</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I319" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>272</v>
+      </c>
+      <c r="B320" t="s">
+        <v>298</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G320" t="s">
+        <v>325</v>
+      </c>
+      <c r="H320" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I320" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>272</v>
+      </c>
+      <c r="B321" t="s">
+        <v>298</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G321" t="s">
+        <v>326</v>
+      </c>
+      <c r="H321" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I321" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>272</v>
+      </c>
+      <c r="B322" t="s">
+        <v>298</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G322" t="s">
+        <v>327</v>
+      </c>
+      <c r="H322" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I322" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>379</v>
+      </c>
+      <c r="B323" t="s">
+        <v>328</v>
+      </c>
+      <c r="C323" t="s">
+        <v>328</v>
+      </c>
+      <c r="G323" t="s">
+        <v>386</v>
+      </c>
+      <c r="H323" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I323" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>379</v>
+      </c>
+      <c r="B324" t="s">
+        <v>329</v>
+      </c>
+      <c r="C324" t="s">
+        <v>329</v>
+      </c>
+      <c r="G324" t="s">
+        <v>613</v>
+      </c>
+      <c r="H324" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I324" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>379</v>
+      </c>
+      <c r="B325" t="s">
+        <v>330</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G325" t="s">
+        <v>619</v>
+      </c>
+      <c r="H325" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I325" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>379</v>
+      </c>
+      <c r="B326" t="s">
+        <v>330</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G326" t="s">
+        <v>620</v>
+      </c>
+      <c r="H326" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I326" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>379</v>
+      </c>
+      <c r="B327" t="s">
+        <v>330</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G327" t="s">
+        <v>621</v>
+      </c>
+      <c r="H327" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I327" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>379</v>
+      </c>
+      <c r="B328" t="s">
+        <v>330</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="G328" t="s">
+        <v>622</v>
+      </c>
+      <c r="H328" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I328" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>379</v>
+      </c>
+      <c r="B329" t="s">
+        <v>330</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G329" t="s">
+        <v>623</v>
+      </c>
+      <c r="H329" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I329" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>379</v>
+      </c>
+      <c r="B330" t="s">
+        <v>331</v>
+      </c>
+      <c r="C330" t="s">
+        <v>627</v>
+      </c>
+      <c r="G330" t="s">
+        <v>624</v>
+      </c>
+      <c r="H330" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I330" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>379</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G331" t="s">
+        <v>625</v>
+      </c>
+      <c r="H331" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I331" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>379</v>
+      </c>
+      <c r="B332" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332" t="s">
+        <v>629</v>
+      </c>
+      <c r="G332" t="s">
+        <v>626</v>
+      </c>
+      <c r="H332" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I332" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>379</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G333" t="s">
+        <v>342</v>
+      </c>
+      <c r="H333" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I333" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>379</v>
+      </c>
+      <c r="B334" t="s">
+        <v>333</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G334" t="s">
+        <v>343</v>
+      </c>
+      <c r="H334" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I334" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>379</v>
+      </c>
+      <c r="B335" t="s">
+        <v>333</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G335" t="s">
+        <v>344</v>
+      </c>
+      <c r="H335" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I335" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>379</v>
+      </c>
+      <c r="B336" t="s">
+        <v>333</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G336" t="s">
+        <v>345</v>
+      </c>
+      <c r="H336" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I336" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>379</v>
+      </c>
+      <c r="B337" t="s">
+        <v>333</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G337" t="s">
+        <v>346</v>
+      </c>
+      <c r="H337" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I337" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>379</v>
+      </c>
+      <c r="B338" t="s">
+        <v>333</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G338" t="s">
+        <v>347</v>
+      </c>
+      <c r="H338" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I338" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>379</v>
+      </c>
+      <c r="B339" t="s">
+        <v>333</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G339" t="s">
+        <v>348</v>
+      </c>
+      <c r="H339" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I339" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>379</v>
+      </c>
+      <c r="B340" t="s">
+        <v>333</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G340" t="s">
+        <v>349</v>
+      </c>
+      <c r="H340" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I340" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>379</v>
+      </c>
+      <c r="B341" t="s">
+        <v>332</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G341" t="s">
+        <v>359</v>
+      </c>
+      <c r="H341" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I341" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>379</v>
+      </c>
+      <c r="B342" t="s">
+        <v>332</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G342" t="s">
+        <v>360</v>
+      </c>
+      <c r="H342" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I342" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>379</v>
+      </c>
+      <c r="B343" t="s">
+        <v>332</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G343" t="s">
+        <v>361</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I343" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>379</v>
+      </c>
+      <c r="B344" t="s">
+        <v>332</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G344" t="s">
+        <v>362</v>
+      </c>
+      <c r="H344" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I344" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>379</v>
+      </c>
+      <c r="B345" t="s">
+        <v>332</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G345" t="s">
+        <v>363</v>
+      </c>
+      <c r="H345" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I345" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>379</v>
+      </c>
+      <c r="B346" t="s">
+        <v>332</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G346" t="s">
+        <v>364</v>
+      </c>
+      <c r="H346" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I346" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>379</v>
+      </c>
+      <c r="B347" t="s">
+        <v>332</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G347" t="s">
+        <v>365</v>
+      </c>
+      <c r="H347" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I347" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>379</v>
+      </c>
+      <c r="B348" t="s">
+        <v>332</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G348" t="s">
+        <v>366</v>
+      </c>
+      <c r="H348" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I348" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>379</v>
+      </c>
+      <c r="B349" t="s">
+        <v>332</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G349" t="s">
+        <v>367</v>
+      </c>
+      <c r="H349" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I349" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>379</v>
+      </c>
+      <c r="B350" t="s">
+        <v>368</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G350" t="s">
+        <v>374</v>
+      </c>
+      <c r="H350" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I350" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>379</v>
+      </c>
+      <c r="B351" t="s">
+        <v>368</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G351" t="s">
+        <v>375</v>
+      </c>
+      <c r="H351" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I351" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>379</v>
+      </c>
+      <c r="B352" t="s">
+        <v>368</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G352" t="s">
+        <v>376</v>
+      </c>
+      <c r="H352" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I352" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>379</v>
+      </c>
+      <c r="B353" t="s">
+        <v>368</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G353" t="s">
+        <v>377</v>
+      </c>
+      <c r="H353" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I353" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>379</v>
+      </c>
+      <c r="B354" t="s">
+        <v>368</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G354" t="s">
+        <v>378</v>
+      </c>
+      <c r="H354" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I354" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1"/>
   <mergeCells count="4">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
